--- a/public/exceltemplate/Constructionbidinformation.xlsx
+++ b/public/exceltemplate/Constructionbidinformation.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">  无锡市华星东方电力环保科技有限公司</t>
   </si>
@@ -58,6 +58,14 @@
   </si>
   <si>
     <t xml:space="preserve">       项目：</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>小计</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -654,7 +662,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -739,6 +747,12 @@
       <c r="H4" s="12" t="s">
         <v>9</v>
       </c>
+      <c r="I4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H4"/>

--- a/public/exceltemplate/Constructionbidinformation.xlsx
+++ b/public/exceltemplate/Constructionbidinformation.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chunrong.bian\Documents\00Gits\20200418hyerp\public\exceltemplate\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416EDCB8-2054-4588-A9B6-BF138B608193}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="32760" windowWidth="20385" windowHeight="8385"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="两条线" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">两条线!$A$1:$H$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">两条线!$A$4:$L$4</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">两条线!$A$1:$H$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">两条线!$1:$4</definedName>
   </definedNames>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">  无锡市华星东方电力环保科技有限公司</t>
   </si>
@@ -61,18 +67,23 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>单价</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>小计</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合单价</t>
+  </si>
+  <si>
+    <t>安装费</t>
+  </si>
+  <si>
+    <t>材料</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12">
     <font>
       <sz val="12"/>
@@ -154,7 +165,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -237,6 +248,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -302,26 +333,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 3" xfId="1"/>
-    <cellStyle name="常规_银川中科安装总材料12.10.08" xfId="2"/>
+    <cellStyle name="常规 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规_银川中科安装总材料12.10.08" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -344,7 +378,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6528" name="Picture 52" descr="IMG_8129"/>
+        <xdr:cNvPr id="6528" name="Picture 52" descr="IMG_8129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000080190000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -657,12 +697,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -681,7 +721,7 @@
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" customHeight="1">
+    <row r="1" spans="1:12" ht="22.5" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -693,7 +733,7 @@
       <c r="G1" s="4"/>
       <c r="H1" s="15"/>
     </row>
-    <row r="2" spans="1:11" ht="16.5" customHeight="1">
+    <row r="2" spans="1:12" ht="16.5" customHeight="1">
       <c r="A2" s="6"/>
       <c r="B2" s="7" t="s">
         <v>1</v>
@@ -710,8 +750,8 @@
       <c r="J2" s="17"/>
       <c r="K2" s="16"/>
     </row>
-    <row r="3" spans="1:11" ht="33.75" customHeight="1">
-      <c r="A3" s="20" t="s">
+    <row r="3" spans="1:12" ht="33.75" customHeight="1">
+      <c r="A3" s="18" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="10"/>
@@ -720,9 +760,9 @@
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="11"/>
-      <c r="H3" s="18"/>
+      <c r="H3" s="20"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1">
+    <row r="4" spans="1:12" ht="15" customHeight="1">
       <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
@@ -747,15 +787,21 @@
       <c r="H4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="14" t="s">
         <v>12</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H4"/>
+  <autoFilter ref="A4:L4" xr:uid="{A55676E0-5AA5-4C5E-9249-26FA8EA12CF8}"/>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.99" right="0.54" top="0.26" bottom="0.6" header="0.5" footer="0.33"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
